--- a/app/Data/Frozen Foods.xlsx
+++ b/app/Data/Frozen Foods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6E4C6-351D-46FC-A42C-7F27D05A88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF7478-BEAC-4854-A79E-69280EF3025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{E476CF44-6FA2-4DA8-8008-7697C81A3222}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="232">
   <si>
     <t xml:space="preserve">NAME </t>
   </si>
@@ -734,6 +734,24 @@
   </si>
   <si>
     <t>ENDO</t>
+  </si>
+  <si>
+    <t>WAFFLE CONE DIPPED CHOCOLATE LINED</t>
+  </si>
+  <si>
+    <t>180x one</t>
+  </si>
+  <si>
+    <t>180 cones</t>
+  </si>
+  <si>
+    <t>WAFFLE CONE MEDIUM PLAIN  TALL CLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272x one </t>
+  </si>
+  <si>
+    <t>272 cones</t>
   </si>
 </sst>
 </file>
@@ -788,15 +806,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -804,12 +828,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,6 +862,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C0BE8D-914E-4C2B-89AC-4182FDB9A5E0}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,222 +3471,274 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+    <row r="90" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>700461632115</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="11">
+        <v>2</v>
+      </c>
+      <c r="D90" s="13">
+        <v>47.19</v>
+      </c>
+      <c r="F90" s="13">
+        <v>47.19</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>700461632108</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="11">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13">
+        <v>48.29</v>
+      </c>
+      <c r="F91" s="13">
+        <v>48.29</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>5413408020122</v>
-      </c>
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7">
-        <v>14.79</v>
-      </c>
-      <c r="F92" s="7">
-        <v>1.49</v>
-      </c>
-      <c r="G92" t="s">
-        <v>161</v>
-      </c>
-      <c r="H92" t="s">
-        <v>44</v>
-      </c>
-      <c r="I92" t="s">
-        <v>121</v>
-      </c>
-      <c r="J92" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>5023846524016</v>
-      </c>
-      <c r="B93" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7">
-        <v>12.69</v>
-      </c>
-      <c r="F93" s="7">
-        <v>1.29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>161</v>
-      </c>
-      <c r="H93" t="s">
-        <v>44</v>
-      </c>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-      <c r="J93" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
+        <v>5413408020122</v>
+      </c>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>14.79</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="G94" t="s">
+        <v>161</v>
+      </c>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+      <c r="J94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>5023846524016</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
+        <v>12.69</v>
+      </c>
+      <c r="F95" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>161</v>
+      </c>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+      <c r="J95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>5411361010877</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>167</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
         <v>19.79</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F96" s="7">
         <v>1.99</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H96" t="s">
         <v>61</v>
       </c>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+      <c r="J96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>4006034102310</v>
-      </c>
-      <c r="B97" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7">
-        <v>11.49</v>
-      </c>
-      <c r="F97" s="7">
-        <v>2.89</v>
-      </c>
-      <c r="G97" t="s">
-        <v>225</v>
-      </c>
-      <c r="H97" t="s">
-        <v>165</v>
-      </c>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-      <c r="J97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>8710449919550</v>
-      </c>
-      <c r="B98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="F98" s="7">
-        <v>4.29</v>
-      </c>
-      <c r="G98" t="s">
-        <v>154</v>
-      </c>
-      <c r="H98" t="s">
-        <v>155</v>
-      </c>
-      <c r="I98" t="s">
-        <v>121</v>
-      </c>
-      <c r="J98" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>8710449936793</v>
+        <v>4006034102310</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" s="7">
-        <v>17.190000000000001</v>
+        <v>11.49</v>
       </c>
       <c r="F99" s="7">
-        <v>17.190000000000001</v>
+        <v>2.89</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>225</v>
+      </c>
+      <c r="H99" t="s">
+        <v>165</v>
       </c>
       <c r="I99" t="s">
         <v>121</v>
+      </c>
+      <c r="J99" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
+        <v>8710449919550</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H100" t="s">
+        <v>155</v>
+      </c>
+      <c r="I100" t="s">
+        <v>121</v>
+      </c>
+      <c r="J100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>8710449936793</v>
+      </c>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="F101" s="7">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
+      </c>
+      <c r="I101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>8710449936861</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>159</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="7">
         <v>17.29</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F102" s="7">
         <v>17.29</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G102" t="s">
         <v>158</v>
       </c>
-      <c r="I100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A104" s="10" t="s">
+      <c r="I102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>223</v>
       </c>
-      <c r="I105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="I107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>224</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I108" t="s">
         <v>121</v>
       </c>
     </row>
